--- a/ExtractSREO/SREOs/SREO Export Template v2 - final.xlsx
+++ b/ExtractSREO/SREOs/SREO Export Template v2 - final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/565dc21372e1cd42/Desktop/LoanBoss/SREOs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycdu\source\repos\camgonzo1\ExtractSREO\ExtractSREO\SREOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A1172C2-F6F0-41BE-BBB4-B5945B26683B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B575901B-0563-4DEF-AEDD-11903D43399A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65E5FC18-3975-4C3D-9E1B-6B0F21E3CD12}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65E5FC18-3975-4C3D-9E1B-6B0F21E3CD12}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Sample" sheetId="7" r:id="rId1"/>
@@ -1347,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636FD130-1788-49E1-A7F6-BAD7AE740E3C}">
   <dimension ref="B1:AB52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
